--- a/flashcards.xlsx
+++ b/flashcards.xlsx
@@ -3,11 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="verb" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="female" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="plural" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="preposition" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="drawer" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="verb" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="female" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="plural" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="preposition" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="futuro_semplice" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="participio" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,740 +17,899 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="738">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>front</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>lo studente (θηλυκό;)</t>
+    <t>essere</t>
+  </si>
+  <si>
+    <t>lo studente</t>
+  </si>
+  <si>
+    <t>sono sei è siamo siete sono</t>
+  </si>
+  <si>
+    <t>Πως κλίνεται στον Ενεστώτα;</t>
+  </si>
+  <si>
+    <t>avere</t>
+  </si>
+  <si>
+    <t>ho hai ha abbiamo avete hanno</t>
+  </si>
+  <si>
+    <t>fare</t>
+  </si>
+  <si>
+    <t>faccio fai fa facciamo fate fanno</t>
+  </si>
+  <si>
+    <t>andare</t>
+  </si>
+  <si>
+    <t>vado vai va andiamo andate vanno</t>
+  </si>
+  <si>
+    <t>potere</t>
+  </si>
+  <si>
+    <t>posso puoi può possiamo potete possono</t>
+  </si>
+  <si>
+    <t>volere</t>
+  </si>
+  <si>
+    <t>voglio vuoi vuole vogliamo volete vogliono</t>
+  </si>
+  <si>
+    <t>Ανώμαλα Ρήματα</t>
+  </si>
+  <si>
+    <t>venire</t>
   </si>
   <si>
     <t>la studentessa</t>
   </si>
   <si>
-    <t>il professore (θηλυκό;)</t>
+    <t>vengo vieni viene veniamo venite vengono</t>
+  </si>
+  <si>
+    <t>plural</t>
+  </si>
+  <si>
+    <t>Πως θα γίνει στο θηλυκό γένος;</t>
+  </si>
+  <si>
+    <t>dire</t>
+  </si>
+  <si>
+    <t>Πληθυντικοί</t>
+  </si>
+  <si>
+    <t>il professore</t>
+  </si>
+  <si>
+    <t>dico dici dice diciamo dite dicono</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
   <si>
     <t>la professoressa</t>
   </si>
   <si>
-    <t>il dottore (θηλυκό;)</t>
+    <t>Θηλυκά</t>
+  </si>
+  <si>
+    <t>il dottore</t>
+  </si>
+  <si>
+    <t>sapere</t>
   </si>
   <si>
     <t>la dottoressa</t>
   </si>
   <si>
-    <t>il poeta (θηλυκό;)</t>
+    <t>preposition</t>
+  </si>
+  <si>
+    <t>so sai sa sappiamo sapete sanno</t>
+  </si>
+  <si>
+    <t>Προθέσεις</t>
+  </si>
+  <si>
+    <t>il poeta</t>
+  </si>
+  <si>
+    <t>uscire</t>
   </si>
   <si>
     <t>la poetessa</t>
   </si>
   <si>
-    <t>il principe (θηλυκό;)</t>
+    <t>esco esci esce usciamo uscite escono</t>
+  </si>
+  <si>
+    <t>participio</t>
+  </si>
+  <si>
+    <t>il principe</t>
+  </si>
+  <si>
+    <t>Μετοχές Αορίστου</t>
   </si>
   <si>
     <t>la principessa</t>
   </si>
   <si>
-    <t>l'uomo (θηλυκό;)</t>
+    <t>dare</t>
+  </si>
+  <si>
+    <t>futuro_semplice</t>
+  </si>
+  <si>
+    <t>l'uomo</t>
+  </si>
+  <si>
+    <t>do dai da diamo date danno</t>
   </si>
   <si>
     <t>la donna</t>
   </si>
   <si>
-    <t>il padre (θηλυκό;)</t>
+    <t>Απλός Μέλλοντας</t>
+  </si>
+  <si>
+    <t>stare</t>
+  </si>
+  <si>
+    <t>il padre</t>
+  </si>
+  <si>
+    <t>sto stai sta stiamo state stanno</t>
   </si>
   <si>
     <t>la madre</t>
   </si>
   <si>
-    <t>il babbo/papà (θηλυκό;)</t>
+    <t>il babbo/papà</t>
+  </si>
+  <si>
+    <t>cadere</t>
   </si>
   <si>
     <t>la mamma</t>
   </si>
   <si>
-    <t>il fratello (θηλυκό;)</t>
+    <t>cado cadi cade cadiamo cadete cadono</t>
+  </si>
+  <si>
+    <t>il fratello</t>
   </si>
   <si>
     <t>la sorella</t>
   </si>
   <si>
-    <t>il marito (θηλυκό;)</t>
+    <t>porre</t>
+  </si>
+  <si>
+    <t>pongo poni pone poniamo ponete pongono</t>
+  </si>
+  <si>
+    <t>il marito</t>
   </si>
   <si>
     <t>la moglie</t>
   </si>
   <si>
-    <t>il genero (θηλυκό;)</t>
+    <t>tenere</t>
+  </si>
+  <si>
+    <t>il genero</t>
+  </si>
+  <si>
+    <t>tengo tieni tiene teniamo tenete tengono</t>
   </si>
   <si>
     <t>la nuora</t>
   </si>
   <si>
-    <t>il padrino (θηλυκό;)</t>
+    <t>valere</t>
+  </si>
+  <si>
+    <t>il padrino</t>
+  </si>
+  <si>
+    <t>valgo vali vale valiamo valete valgono</t>
   </si>
   <si>
     <t>la madrina</t>
   </si>
   <si>
-    <t>l'eroe (θηλυκό;)</t>
+    <t>vedere</t>
+  </si>
+  <si>
+    <t>l'eroe</t>
+  </si>
+  <si>
+    <t>vado vedi vede vediamo vedete vedono</t>
   </si>
   <si>
     <t>l'eroina</t>
   </si>
   <si>
-    <t>il gallo (θηλυκό;)</t>
+    <t>capire</t>
+  </si>
+  <si>
+    <t>capisco capisci capisce capiamo capite capiscono</t>
+  </si>
+  <si>
+    <t>dovere</t>
+  </si>
+  <si>
+    <t>devo devi deve dobbiamo dovete devono</t>
+  </si>
+  <si>
+    <t>salire</t>
+  </si>
+  <si>
+    <t>salgo sali sale saliamo salite salgono</t>
+  </si>
+  <si>
+    <t>il gallo</t>
   </si>
   <si>
     <t>la gallina</t>
   </si>
   <si>
-    <t>il re (θηλυκό;)</t>
+    <t>il re</t>
   </si>
   <si>
     <t>la regina</t>
   </si>
   <si>
-    <t>il dio (θηλυκό;)</t>
+    <t>il dio</t>
   </si>
   <si>
     <t>la dea</t>
   </si>
   <si>
-    <t>l'occhio (πληθυντικός;)</t>
+    <t>l'occhio</t>
   </si>
   <si>
     <t>gli occhi</t>
   </si>
   <si>
-    <t>l'orologio (πληθυντικός;)</t>
-  </si>
-  <si>
-    <t>essere</t>
+    <t>Πως θα γίνει στον πληθυντικό αριθμό;</t>
+  </si>
+  <si>
+    <t>sarò sarai sarà saremo sarete saranno</t>
+  </si>
+  <si>
+    <t>l'orologio</t>
+  </si>
+  <si>
+    <t>Πως είναι το ρήμα στον απλό μέλλοντα;</t>
   </si>
   <si>
     <t>gli orologi</t>
   </si>
   <si>
-    <t>sono sei è siamo siete sono</t>
-  </si>
-  <si>
-    <t>l'esercizio (πληθυντικός;)</t>
+    <t>avrò avrai avrà avremo avrete avranno</t>
+  </si>
+  <si>
+    <t>l'esercizio</t>
   </si>
   <si>
     <t>gli esercizi</t>
   </si>
   <si>
-    <t>il negozio (πληθυντικός;)</t>
+    <t>starò starai starà staremo starete staranno</t>
+  </si>
+  <si>
+    <t>Ma poi c'è la festa ... compleanno dei bambini, l'amica che viene ... Roma e che non vediamo ... tanto tempo la collega cosi gentile che la mattina ci accompagnia ... ufficio ... macchina.</t>
+  </si>
+  <si>
+    <t>il negozio</t>
   </si>
   <si>
     <t>i negozi</t>
   </si>
   <si>
-    <t>avere</t>
-  </si>
-  <si>
-    <t>lo zio (πληθυντικός;)</t>
+    <t>darò darai darà daremo darete daranno</t>
+  </si>
+  <si>
+    <t>lo zio</t>
   </si>
   <si>
     <t>gli zii</t>
   </si>
   <si>
-    <t>ho hai ha abbiamo avete hanno</t>
-  </si>
-  <si>
-    <t>l'addio (πληθυντικός;)</t>
+    <t>farò farai farà faremo farete faranno</t>
+  </si>
+  <si>
+    <t>l'addio</t>
   </si>
   <si>
     <t>gli addii</t>
   </si>
   <si>
-    <t>fare</t>
-  </si>
-  <si>
-    <t>faccio fai fa facciamo fate fanno</t>
-  </si>
-  <si>
-    <t>il banco (πληθυντικός;)</t>
+    <t>Ma poi c'è la festa di compleanno dei bambini, l'amica che viene da Roma e che non vediamo da tanto tempo la collega cosi gentile che la mattina ci accompagnia in ufficio in macchina.</t>
+  </si>
+  <si>
+    <t>Συμπληρώστε τις προθέσεις.</t>
+  </si>
+  <si>
+    <t>il banco</t>
+  </si>
+  <si>
+    <t>andrò andrai andrà andremo andrete andranno</t>
   </si>
   <si>
     <t>i banchi</t>
   </si>
   <si>
-    <t>andare</t>
-  </si>
-  <si>
-    <t>vado vai va andiamo andate vanno</t>
-  </si>
-  <si>
-    <t>l'arco (πληθυντικός;)</t>
+    <t>l'arco</t>
   </si>
   <si>
     <t>gli archi</t>
   </si>
   <si>
-    <t>potere</t>
-  </si>
-  <si>
-    <t>posso puoi può possiamo potete possono</t>
-  </si>
-  <si>
-    <t>l'albergo (πληθυντικός;)</t>
+    <t>Infatti ... una settimana devo organizzare un'altra festa!</t>
+  </si>
+  <si>
+    <t>cadrò cadrai cadrà cadremo cadrete cadranno</t>
+  </si>
+  <si>
+    <t>l'albergo</t>
+  </si>
+  <si>
+    <t>Infatti tra una settimana devo organizzare un'altra festa!</t>
   </si>
   <si>
     <t>gli alberghi</t>
   </si>
   <si>
-    <t>volere</t>
-  </si>
-  <si>
-    <t>voglio vuoi vuole vogliamo volete vogliono</t>
-  </si>
-  <si>
-    <t>il fungo (πληθυντικός;)</t>
+    <t>dovrò dovrai dovrà dovremo dovrete dovranno</t>
+  </si>
+  <si>
+    <t>il fungo</t>
   </si>
   <si>
     <t>i funghi</t>
   </si>
   <si>
-    <t>venire</t>
-  </si>
-  <si>
-    <t>l'amico (πληθυντικός;)</t>
-  </si>
-  <si>
-    <t>vengo vieni viene veniamo venite vengono</t>
+    <t>potete</t>
+  </si>
+  <si>
+    <t>parla sempre ... politica</t>
+  </si>
+  <si>
+    <t>l'amico</t>
+  </si>
+  <si>
+    <t>parla sempre di politica</t>
+  </si>
+  <si>
+    <t>potrò potrai potrà potremo potrete potranno</t>
   </si>
   <si>
     <t>gli amici</t>
   </si>
   <si>
-    <t>il greco (πληθυντικός;)</t>
+    <t>il greco</t>
   </si>
   <si>
     <t>i greci</t>
   </si>
   <si>
-    <t>dire</t>
-  </si>
-  <si>
-    <t>dico dici dice diciamo dite dicono</t>
-  </si>
-  <si>
-    <t>il nemico (πληθυντικός;)</t>
+    <t>saprò saprai saprà sapremo saprete sapranno</t>
+  </si>
+  <si>
+    <t>... chi è quella macchina? È la macchina ... Paola.</t>
+  </si>
+  <si>
+    <t>il nemico</t>
   </si>
   <si>
     <t>i nemici</t>
   </si>
   <si>
-    <t>il porco (πληθυντικός;)</t>
+    <t>Di chi è quella macchina? È la macchina di Paola.</t>
+  </si>
+  <si>
+    <t>vedrò vedrai vedrà vedremo vedrete vedranno</t>
+  </si>
+  <si>
+    <t>il porco</t>
   </si>
   <si>
     <t>i porci</t>
   </si>
   <si>
-    <t>lo stomaco (πληθυντικός;)</t>
+    <t>vivere</t>
+  </si>
+  <si>
+    <t>lo stomaco</t>
+  </si>
+  <si>
+    <t>vivrò vivrai vivrà vivremo vivrete vivranno</t>
+  </si>
+  <si>
+    <t>Cosa c'è alla televisione stasera? C'è un film ... fantascienza, ... alieni, credo.</t>
   </si>
   <si>
     <t>gli stomachi</t>
   </si>
   <si>
-    <t>l'obbligo (πληθυντικός;)</t>
+    <t>Cosa c'è alla televisione stasera? C'è un film di fantascienza, di alieni credo.</t>
+  </si>
+  <si>
+    <t>l'obbligo</t>
   </si>
   <si>
     <t>gli obblighi</t>
   </si>
   <si>
-    <t>sapere</t>
-  </si>
-  <si>
-    <t>so sai sa sappiamo sapete sanno</t>
-  </si>
-  <si>
-    <t>il catalogo (πληθυντικός;)</t>
+    <t>vorrò vorrai vorrà vorremo vorrete vorranno</t>
+  </si>
+  <si>
+    <t>il catalogo</t>
+  </si>
+  <si>
+    <t>rimanere</t>
   </si>
   <si>
     <t>i cataloghi</t>
   </si>
   <si>
-    <t>uscire</t>
-  </si>
-  <si>
-    <t>esco esci esce usciamo uscite escono</t>
-  </si>
-  <si>
-    <t>il dialogo (πληθυντικός;)</t>
+    <t>Ho comprato un orologio ... oro! Beh, il mio è ... plastica e funziona benissimo!</t>
+  </si>
+  <si>
+    <t>rimarrò rimarrai rimarrà rimarremo rimarrete rimarranno</t>
+  </si>
+  <si>
+    <t>Ho comprato un orologio d'oro! Beh, il mio è di plastica e funziona benissimo!</t>
+  </si>
+  <si>
+    <t>il dialogo</t>
   </si>
   <si>
     <t>i dialoghi</t>
   </si>
   <si>
-    <t>dare</t>
-  </si>
-  <si>
-    <t>do dai da diamo date danno</t>
-  </si>
-  <si>
-    <t>l'uomo (πληθυντικός;)</t>
+    <t>bere</t>
+  </si>
+  <si>
+    <t>berrò berrai berrà berremo berrete berranno</t>
+  </si>
+  <si>
+    <t>... dov'è Carla? È ... Bologna.</t>
   </si>
   <si>
     <t>gli uomini</t>
   </si>
   <si>
-    <t>stare</t>
-  </si>
-  <si>
-    <t>sto stai sta stiamo state stanno</t>
-  </si>
-  <si>
-    <t>il dito (πληθυντικός;)</t>
-  </si>
-  <si>
-    <t>cadere</t>
+    <t>Di dov'è Carla? È di Bologna.</t>
+  </si>
+  <si>
+    <t>il dito</t>
   </si>
   <si>
     <t>le dita</t>
   </si>
   <si>
-    <t>cado cadi cade cadiamo cadete cadono</t>
-  </si>
-  <si>
-    <t>la moglie (πληθυντικός;)</t>
-  </si>
-  <si>
-    <t>porre</t>
+    <t>porrò porrai porrà porremo porrete porranno</t>
+  </si>
+  <si>
+    <t>Finisco ... scrivere questa mail e arrivo.</t>
   </si>
   <si>
     <t>le mogli</t>
   </si>
   <si>
-    <t>pongo poni pone poniamo ponete pongono</t>
-  </si>
-  <si>
-    <t>tenere</t>
-  </si>
-  <si>
-    <t>tengo tieni tiene teniamo tenete tengono</t>
-  </si>
-  <si>
-    <t>il ciglio (πληθυντικός;)</t>
+    <t>Finisco di scrivere questa mail e arrivo.</t>
+  </si>
+  <si>
+    <t>verrò verrai verrà verremo verrete verranno</t>
+  </si>
+  <si>
+    <t>il ciglio</t>
   </si>
   <si>
     <t>le ciglia</t>
   </si>
   <si>
-    <t>valere</t>
-  </si>
-  <si>
-    <t>valgo vali vale valiamo valete valgono</t>
-  </si>
-  <si>
-    <t>l'uovo (πληθυντικός;)</t>
-  </si>
-  <si>
-    <t>vedere</t>
+    <t>l'uovo</t>
+  </si>
+  <si>
+    <t>Voglio smettere ... fumare ma è difficile.</t>
   </si>
   <si>
     <t>le uova</t>
   </si>
   <si>
-    <t>vado vedi vede vediamo vedete vedono</t>
-  </si>
-  <si>
-    <t>capire</t>
-  </si>
-  <si>
-    <t>il dio (πληθυντικός;)</t>
+    <t>Volgio smettere di fumare ma è difficile.</t>
+  </si>
+  <si>
+    <t>tradure</t>
+  </si>
+  <si>
+    <t>tradurrò tradurrai tradurrà tradurremo tradurrete tradurranno</t>
   </si>
   <si>
     <t>gli dei</t>
   </si>
   <si>
-    <t>capisco capisci capisce capiamo capite capiscono</t>
-  </si>
-  <si>
-    <t>dovere</t>
-  </si>
-  <si>
-    <t>l'ala (πληθυντικός;)</t>
+    <t>Termini ... compilare il modulo, per favore.</t>
+  </si>
+  <si>
+    <t>l'ala</t>
   </si>
   <si>
     <t>le ali</t>
   </si>
   <si>
-    <t>devo devi deve dobbiamo dovete devono</t>
-  </si>
-  <si>
-    <t>il centinaio (πληθυντικός;)</t>
-  </si>
-  <si>
-    <t>salire</t>
+    <t>Termini di compilare il modulo, per favore.</t>
+  </si>
+  <si>
+    <t>terrò terrai terrà terremo terrete terranno</t>
+  </si>
+  <si>
+    <t>il centinaio</t>
   </si>
   <si>
     <t>le centinaia</t>
   </si>
   <si>
-    <t>salgo sali sale saliamo salite salgono</t>
-  </si>
-  <si>
-    <t>il sopracciglio (πληθυντικός;)</t>
+    <t>trarre</t>
+  </si>
+  <si>
+    <t>trarrò trarrai trarrà trarremo trarrete trarranno</t>
+  </si>
+  <si>
+    <t>il sopracciglio</t>
   </si>
   <si>
     <t>le sopracciglia</t>
   </si>
   <si>
-    <t>il bue (πληθυντικός;)</t>
+    <t>spiegare</t>
+  </si>
+  <si>
+    <t>spiegherò spiegherai spiegherà spiegheremo spiegherete spiegheranno</t>
+  </si>
+  <si>
+    <t>il bue</t>
+  </si>
+  <si>
+    <t>Pensi ... venire con noi? Credo ... no, ho troppo lavoro.</t>
   </si>
   <si>
     <t>i buoi</t>
   </si>
   <si>
-    <t>il riso (πληθυντικός;)</t>
+    <t>Pensi di venire con noi? Credo di no, ho troppo lavoro.</t>
+  </si>
+  <si>
+    <t>pagare</t>
+  </si>
+  <si>
+    <t>pagherò pagherai pagherà pagheremo pagherete pagheranno</t>
+  </si>
+  <si>
+    <t>il riso</t>
   </si>
   <si>
     <t>le risa</t>
   </si>
   <si>
-    <t>l'arma (πληθυντικός;)</t>
+    <t>cercare</t>
+  </si>
+  <si>
+    <t>Che maleducato! Ma chi si crede ... essere?</t>
+  </si>
+  <si>
+    <t>cercherò cercherai cercherà cercheremo cercherete cercheranno</t>
+  </si>
+  <si>
+    <t>Che maleducato! Ma chi si crede di essere?</t>
+  </si>
+  <si>
+    <t>l'arma</t>
   </si>
   <si>
     <t>le armi</t>
   </si>
   <si>
-    <t>il migliaio (πληθυντικός;)</t>
+    <t>dimenticare</t>
+  </si>
+  <si>
+    <t>il migliaio</t>
+  </si>
+  <si>
+    <t>dimenticherò dimenticherai dimenticherà dimenticheremo dimenticherete dimenticheranno</t>
   </si>
   <si>
     <t>le migliaia</t>
   </si>
   <si>
-    <t>la città (πληθυντικός;)</t>
+    <t>... Barcellona c'è una cattedrale molto famosa.</t>
+  </si>
+  <si>
+    <t>A Barcellona c'è una cattedrale molto famosa.</t>
+  </si>
+  <si>
+    <t>la città</t>
+  </si>
+  <si>
+    <t>magniare</t>
   </si>
   <si>
     <t>le città</t>
   </si>
   <si>
-    <t>la virtù (πληθυντικός;)</t>
+    <t>mangerò mangerai mangerà mangeremo mangerete mangeranno</t>
+  </si>
+  <si>
+    <t>la virtù</t>
+  </si>
+  <si>
+    <t>cominciare</t>
+  </si>
+  <si>
+    <t>Vado ... Cipro la settimaa prossima.</t>
   </si>
   <si>
     <t>le virtù</t>
   </si>
   <si>
-    <t>il caffè (πληθυντικός;)</t>
+    <t>Vado a Cipro la settmana prossima.</t>
+  </si>
+  <si>
+    <t>comincerò comincerai comincerà cominceremo comincerete cominceranno</t>
+  </si>
+  <si>
+    <t>il caffè</t>
   </si>
   <si>
     <t>i caffè</t>
   </si>
   <si>
-    <t>il tassi (πληθυντικός;)</t>
+    <t>il tassi</t>
   </si>
   <si>
     <t>i tassi</t>
   </si>
   <si>
-    <t>il re (πληθυντικός;)</t>
+    <t>Allora, ci vediamo ... mezzogiorno?</t>
+  </si>
+  <si>
+    <t>Allora, ci vediamo a mezzogiorno?</t>
   </si>
   <si>
     <t>i re</t>
   </si>
   <si>
-    <t>la gru (πληθυντικός;)</t>
+    <t>la gru</t>
   </si>
   <si>
     <t>le gru</t>
   </si>
   <si>
-    <t>il brindisi (πληθυντικός;)</t>
+    <t>Scusi, ... che ora finisce il film? ... mezzanotte.</t>
+  </si>
+  <si>
+    <t>Scusi a che ora finisce il film? A mezzanotte.</t>
+  </si>
+  <si>
+    <t>il brindisi</t>
   </si>
   <si>
     <t>i brindisi</t>
   </si>
   <si>
-    <t>l'analisi (πληθυντικός;)</t>
+    <t>l'analisi</t>
   </si>
   <si>
     <t>i analisi</t>
   </si>
   <si>
-    <t>il pigiama (πληθυντικός;)</t>
+    <t>Resto ... Milano fino ... venerdi.</t>
+  </si>
+  <si>
+    <t>Resto a Milano fino a venerdi.</t>
+  </si>
+  <si>
+    <t>il pigiama</t>
   </si>
   <si>
     <t>i pigiama</t>
   </si>
   <si>
-    <t>il gorilla (πληθυντικός;)</t>
+    <t>il gorilla</t>
   </si>
   <si>
     <t>i gorilla</t>
   </si>
   <si>
-    <t>il sosia (πληθυντικός;)</t>
+    <t>il sosia</t>
+  </si>
+  <si>
+    <t>Sofia è ... ufficio fino ... tre, poi esce.</t>
   </si>
   <si>
     <t>i sosia</t>
   </si>
   <si>
-    <t>il boia (πληθυντικός;)</t>
+    <t>Sofia è in ufficio fino alle tre, poi esce.</t>
+  </si>
+  <si>
+    <t>il boia</t>
   </si>
   <si>
     <t>i boia</t>
   </si>
   <si>
-    <t>la serie (πληθυντικός;)</t>
+    <t>la serie</t>
   </si>
   <si>
     <t>le serie</t>
   </si>
   <si>
-    <t>la specie (πληθυντικός;)</t>
+    <t>Vado ... mangiare.</t>
+  </si>
+  <si>
+    <t>Vado a mangiare.</t>
+  </si>
+  <si>
+    <t>la specie</t>
   </si>
   <si>
     <t>le specie</t>
   </si>
   <si>
-    <t>la barbarie (πληθυντικός;)</t>
+    <t>la barbarie</t>
   </si>
   <si>
     <t>le barbarie</t>
   </si>
   <si>
-    <t>la superficie (πληθυντικός;)</t>
+    <t>Esco ... fare una passegiata.</t>
+  </si>
+  <si>
+    <t>Esco a fare una passegiata.</t>
+  </si>
+  <si>
+    <t>la superficie</t>
   </si>
   <si>
     <t>le superfici</t>
   </si>
   <si>
-    <t>la foto (πληθυντικός;)</t>
+    <t>la foto</t>
   </si>
   <si>
     <t>le foto (la fotografia)</t>
   </si>
   <si>
-    <t>il cinema (πληθυντικός;)</t>
+    <t>Paolo, è tardi, comincia ... fare i compiti!</t>
+  </si>
+  <si>
+    <t>Paolo, è tardi, comincia a fare i compiti!</t>
+  </si>
+  <si>
+    <t>il cinema</t>
   </si>
   <si>
     <t>i cinema (il cinematografo)</t>
   </si>
   <si>
-    <t>l'auto (πληθυντικός;)</t>
+    <t>l'auto</t>
   </si>
   <si>
     <t>le auto (l'automobile)</t>
   </si>
   <si>
-    <t>la moto (πληθυντικός;)</t>
+    <t>Adesso mi metto ... pulire il giardino.</t>
+  </si>
+  <si>
+    <t>la moto</t>
+  </si>
+  <si>
+    <t>Adesso mi metto a pulire il giardino.</t>
   </si>
   <si>
     <t>le moto (la motocicletta)</t>
   </si>
   <si>
-    <t>la bici (πληθυντικός;)</t>
+    <t>la bici</t>
   </si>
   <si>
     <t>le bici (la bicicletta)</t>
   </si>
   <si>
-    <t>il frigo (πληθυντικός;)</t>
+    <t>Prendi l'ombrello, inizia ... piovere.</t>
+  </si>
+  <si>
+    <t>il frigo</t>
+  </si>
+  <si>
+    <t>Prendi l'obrello, inizia a piovere.</t>
   </si>
   <si>
     <t>i frigo (il frigorifero)</t>
   </si>
   <si>
-    <t>l'autobus (πληθυντικός;)</t>
+    <t>l'autobus</t>
   </si>
   <si>
     <t>gli autobus</t>
   </si>
   <si>
-    <t>lo sport (πληθυντικός;)</t>
+    <t>lo sport</t>
   </si>
   <si>
     <t>gli sport</t>
   </si>
   <si>
-    <t>l'euro (πληθυντικός;)</t>
+    <t>... chi mandiamo questo documento? ... direttore e ... signora Romano.</t>
+  </si>
+  <si>
+    <t>A chi mandiamo questo documento? Al direttore e alla signora Romano.</t>
+  </si>
+  <si>
+    <t>l'euro</t>
   </si>
   <si>
     <t>gli euro</t>
   </si>
   <si>
-    <t>il computer (πληθυντικός;)</t>
+    <t>il computer</t>
   </si>
   <si>
     <t>i computer</t>
   </si>
   <si>
-    <t>l'e-mail (πληθυντικός;)</t>
+    <t>l'e-mail</t>
+  </si>
+  <si>
+    <t>Sai, ho scritto una mail ... mio fratello.</t>
   </si>
   <si>
     <t>le e-mail</t>
   </si>
   <si>
-    <t>il bar (πληθυντικός;)</t>
+    <t>Sai, ho scritto una mail a mio fratello.</t>
+  </si>
+  <si>
+    <t>il bar</t>
   </si>
   <si>
     <t>i bar</t>
   </si>
   <si>
-    <t>la brioche (πληθυντικός;)</t>
+    <t>la brioche</t>
   </si>
   <si>
     <t>le brioche</t>
   </si>
   <si>
-    <t>Ma poi c'è la festa ... compleanno dei bambini, l'amica che viene ... Roma e che non vediamo ... tanto tempo la collega cosi gentile che la mattina ci accompagnia ... ufficio ... macchina.</t>
-  </si>
-  <si>
-    <t>Ma poi c'è la festa di compleanno dei bambini, l'amica che viene da Roma e che non vediamo da tanto tempo la collega cosi gentile che la mattina ci accompagnia in ufficio in macchina.</t>
-  </si>
-  <si>
-    <t>Infatti ... una settimana devo organizzare un'altra festa!</t>
-  </si>
-  <si>
-    <t>Infatti tra una settimana devo organizzare un'altra festa!</t>
-  </si>
-  <si>
-    <t>parla sempre ... politica</t>
-  </si>
-  <si>
-    <t>parla sempre di politica</t>
-  </si>
-  <si>
-    <t>... chi è quella macchina? È la macchina ... Paola.</t>
-  </si>
-  <si>
-    <t>Di chi è quella macchina? È la macchina di Paola.</t>
-  </si>
-  <si>
-    <t>Cosa c'è alla televisione stasera? C'è un film ... fantascienza, ... alieni, credo.</t>
-  </si>
-  <si>
-    <t>Cosa c'è alla televisione stasera? C'è un film di fantascienza, di alieni credo.</t>
-  </si>
-  <si>
-    <t>Ho comprato un orologio ... oro! Beh, il mio è ... plastica e funziona benissimo!</t>
-  </si>
-  <si>
-    <t>Ho comprato un orologio d'oro! Beh, il mio è di plastica e funziona benissimo!</t>
-  </si>
-  <si>
-    <t>... dov'è Carla? È ... Bologna.</t>
-  </si>
-  <si>
-    <t>Di dov'è Carla? È di Bologna.</t>
-  </si>
-  <si>
-    <t>Finisco ... scrivere questa mail e arrivo.</t>
-  </si>
-  <si>
-    <t>Finisco di scrivere questa mail e arrivo.</t>
-  </si>
-  <si>
-    <t>Voglio smettere ... fumare ma è difficile.</t>
-  </si>
-  <si>
-    <t>Volgio smettere di fumare ma è difficile.</t>
-  </si>
-  <si>
-    <t>Termini ... compilare il modulo, per favore.</t>
-  </si>
-  <si>
-    <t>Termini di compilare il modulo, per favore.</t>
-  </si>
-  <si>
-    <t>Pensi ... venire con noi? Credo ... no, ho troppo lavoro.</t>
-  </si>
-  <si>
-    <t>Pensi di venire con noi? Credo di no, ho troppo lavoro.</t>
-  </si>
-  <si>
-    <t>Che maleducato! Ma chi si crede ... essere?</t>
-  </si>
-  <si>
-    <t>Che maleducato! Ma chi si crede di essere?</t>
-  </si>
-  <si>
-    <t>... Barcellona c'è una cattedrale molto famosa.</t>
-  </si>
-  <si>
-    <t>A Barcellona c'è una cattedrale molto famosa.</t>
-  </si>
-  <si>
-    <t>Vado ... Cipro la settimaa prossima.</t>
-  </si>
-  <si>
-    <t>Vado a Cipro la settmana prossima.</t>
-  </si>
-  <si>
-    <t>Allora, ci vediamo ... mezzogiorno?</t>
-  </si>
-  <si>
-    <t>Allora, ci vediamo a mezzogiorno?</t>
-  </si>
-  <si>
-    <t>Scusi, ... che ora finisce il film? ... mezzanotte.</t>
-  </si>
-  <si>
-    <t>Scusi a che ora finisce il film? A mezzanotte.</t>
-  </si>
-  <si>
-    <t>Resto ... Milano fino ... venerdi.</t>
-  </si>
-  <si>
-    <t>Resto a Milano fino a venerdi.</t>
-  </si>
-  <si>
-    <t>Sofia è ... ufficio fino ... tre, poi esce.</t>
-  </si>
-  <si>
-    <t>Sofia è in ufficio fino alle tre, poi esce.</t>
-  </si>
-  <si>
-    <t>Vado ... mangiare.</t>
-  </si>
-  <si>
-    <t>Vado a mangiare.</t>
-  </si>
-  <si>
-    <t>Esco ... fare una passegiata.</t>
-  </si>
-  <si>
-    <t>Esco a fare una passegiata.</t>
-  </si>
-  <si>
-    <t>Paolo, è tardi, comincia ... fare i compiti!</t>
-  </si>
-  <si>
-    <t>Paolo, è tardi, comincia a fare i compiti!</t>
-  </si>
-  <si>
-    <t>Adesso mi metto ... pulire il giardino.</t>
-  </si>
-  <si>
-    <t>Adesso mi metto a pulire il giardino.</t>
-  </si>
-  <si>
-    <t>Prendi l'ombrello, inizia ... piovere.</t>
-  </si>
-  <si>
-    <t>Prendi l'obrello, inizia a piovere.</t>
-  </si>
-  <si>
-    <t>... chi mandiamo questo documento? ... direttore e ... signora Romano.</t>
-  </si>
-  <si>
-    <t>A chi mandiamo questo documento? Al direttore e alla signora Romano.</t>
-  </si>
-  <si>
-    <t>Sai, ho scritto una mail ... mio fratello.</t>
-  </si>
-  <si>
-    <t>Sai, ho scritto una mail a mio fratello.</t>
-  </si>
-  <si>
     <t>Ho prestato la macchina ... Stefano. ... chi?! ... Stefano, perchè?</t>
   </si>
   <si>
@@ -791,198 +952,567 @@
     <t>Sto da mio padre per qualche giorno.</t>
   </si>
   <si>
+    <t>accendere</t>
+  </si>
+  <si>
+    <t>(ha) acceso</t>
+  </si>
+  <si>
+    <t>Ποιά είναι η μετοχή αορίστου του ρήματος;</t>
+  </si>
+  <si>
+    <t>ammettere</t>
+  </si>
+  <si>
     <t>Il film è iniziato ... un'ora.</t>
   </si>
   <si>
+    <t>(ha) ammesso</t>
+  </si>
+  <si>
     <t>Il film è iniziato da un'ora.</t>
   </si>
   <si>
+    <t>appendere</t>
+  </si>
+  <si>
+    <t>(ha) appeso</t>
+  </si>
+  <si>
     <t>In quel ristorante è possibile pranzare ... mezzogiorno.</t>
   </si>
   <si>
+    <t>aprire</t>
+  </si>
+  <si>
+    <t>(ha) apperto</t>
+  </si>
+  <si>
     <t>In quel ristorante è possibile pranzare da mezzogiorno.</t>
   </si>
   <si>
+    <t>(ha) bevuto</t>
+  </si>
+  <si>
     <t>Il dottore riceve ... 16.30 in poi.</t>
   </si>
   <si>
+    <t>chiedere</t>
+  </si>
+  <si>
     <t>Il dottore riceve dalle 16.30 in poi.</t>
   </si>
   <si>
+    <t>(ha) chiesto</t>
+  </si>
+  <si>
+    <t>chiudere</t>
+  </si>
+  <si>
+    <t>(ha) chiuso</t>
+  </si>
+  <si>
     <t>Che bel vestito ... sera!</t>
   </si>
   <si>
     <t>Che bel vestito da sera!</t>
   </si>
   <si>
+    <t>concedere</t>
+  </si>
+  <si>
+    <t>(ha) concesso</t>
+  </si>
+  <si>
+    <t>concludere</t>
+  </si>
+  <si>
+    <t>(ha) concluso</t>
+  </si>
+  <si>
     <t>Dove sono i miei occhiali ... sole?</t>
   </si>
   <si>
+    <t>conoscere</t>
+  </si>
+  <si>
     <t>Dove sono i miei occhiali da sole?</t>
   </si>
   <si>
+    <t>(ha) conosciuto</t>
+  </si>
+  <si>
+    <t>correggere</t>
+  </si>
+  <si>
+    <t>(ha) corretto</t>
+  </si>
+  <si>
+    <t>correre</t>
+  </si>
+  <si>
+    <t>(è/ha) corso</t>
+  </si>
+  <si>
     <t>Qual è il tuo spazzolino ... denti?</t>
   </si>
   <si>
     <t>Qual è il tuo spazzolino da denti?</t>
   </si>
   <si>
+    <t>crescere</t>
+  </si>
+  <si>
+    <t>(è/ha) cresciuto</t>
+  </si>
+  <si>
+    <t>decidere</t>
+  </si>
+  <si>
+    <t>(ha) deciso</t>
+  </si>
+  <si>
     <t>Vuoi qualcosa ... bere?</t>
   </si>
   <si>
     <t>Vuoi qualcosa da bere?</t>
   </si>
   <si>
+    <t>deludere</t>
+  </si>
+  <si>
+    <t>(ha) deluso</t>
+  </si>
+  <si>
+    <t>difendere</t>
+  </si>
+  <si>
+    <t>(ha) difeso</t>
+  </si>
+  <si>
     <t>Vorrei qualcosa ... mangiare?</t>
   </si>
   <si>
     <t>Vorrei qualcosa da mangiare?</t>
   </si>
   <si>
+    <t>dipendere</t>
+  </si>
+  <si>
+    <t>(è) dipeso</t>
+  </si>
+  <si>
+    <t>(ha) detto</t>
+  </si>
+  <si>
     <t>Vivo ... Europa, per la precisione ... Francia, ... Provenza.</t>
   </si>
   <si>
+    <t>dirigere</t>
+  </si>
+  <si>
+    <t>(ha) diretto</t>
+  </si>
+  <si>
     <t>Vivo in Europa, per la precisione in Francia, in Provenza.</t>
   </si>
   <si>
+    <t>discutere</t>
+  </si>
+  <si>
+    <t>(ha) discusso</t>
+  </si>
+  <si>
+    <t>distinguere</t>
+  </si>
+  <si>
     <t>Abito ... Via Dante 12.</t>
   </si>
   <si>
+    <t>(ha) distinto</t>
+  </si>
+  <si>
     <t>Abito in Via Dante 12.</t>
   </si>
   <si>
+    <t>distruggere</t>
+  </si>
+  <si>
+    <t>(ha) distrutto</t>
+  </si>
+  <si>
+    <t>dividere</t>
+  </si>
+  <si>
+    <t>(ha) diviso</t>
+  </si>
+  <si>
     <t>Siamo già ... primavera!?</t>
   </si>
   <si>
     <t>Siamo già in primavera!?</t>
   </si>
   <si>
+    <t>escludere</t>
+  </si>
+  <si>
+    <t>(ha) escluso</t>
+  </si>
+  <si>
+    <t>esistere</t>
+  </si>
+  <si>
+    <t>(è) esistito</t>
+  </si>
+  <si>
     <t>Preferisco le vacanze ... estate.</t>
   </si>
   <si>
     <t>Preferisco le vacanze in estate.</t>
   </si>
   <si>
+    <t>esplodere</t>
+  </si>
+  <si>
+    <t>(è/ha) esploso</t>
+  </si>
+  <si>
+    <t>esprimere</t>
+  </si>
+  <si>
+    <t>(ha) espresso</t>
+  </si>
+  <si>
     <t>Anna si sposa ... maggio.</t>
   </si>
   <si>
     <t>Anna si sposa in maggio.</t>
   </si>
   <si>
+    <t>essere/stare</t>
+  </si>
+  <si>
+    <t>(è) stato</t>
+  </si>
+  <si>
     <t>Sono nato ... 1980.</t>
   </si>
   <si>
+    <t>(ha) fatto</t>
+  </si>
+  <si>
     <t>Sono nato nel 1980.</t>
   </si>
   <si>
+    <t>giungere</t>
+  </si>
+  <si>
+    <t>(è) giunto</t>
+  </si>
+  <si>
+    <t>insistere</t>
+  </si>
+  <si>
     <t>... anni '70 la moda era molto colorata.</t>
   </si>
   <si>
+    <t>(ha) insistito</t>
+  </si>
+  <si>
     <t>negli anni '70 la moda era molto colorata.</t>
   </si>
   <si>
+    <t>leggere</t>
+  </si>
+  <si>
+    <t>(ha) letto</t>
+  </si>
+  <si>
+    <t>mettere</t>
+  </si>
+  <si>
     <t>Puoi finire questo lavoro ... due ore?</t>
   </si>
   <si>
+    <t>(ha) messo</t>
+  </si>
+  <si>
     <t>Puoi finire questo lavoro in due ore?</t>
   </si>
   <si>
+    <t>morire</t>
+  </si>
+  <si>
+    <t>(è) morto</t>
+  </si>
+  <si>
     <t>Deve perdere sei chili ... due mesi!</t>
   </si>
   <si>
+    <t>muovere</t>
+  </si>
+  <si>
+    <t>(è/ha) mosso</t>
+  </si>
+  <si>
     <t>Deve perdere sei chili in due mesi!</t>
   </si>
   <si>
+    <t>nascere</t>
+  </si>
+  <si>
+    <t>(è) nato</t>
+  </si>
+  <si>
+    <t>nascondere</t>
+  </si>
+  <si>
+    <t>(ha) nascosto</t>
+  </si>
+  <si>
     <t>Domani andiamo ... Roma. ... aereo? No ... treno.</t>
   </si>
   <si>
     <t>Domani andiamo a Roma. In aereo? No in treno.</t>
   </si>
   <si>
+    <t>offendere</t>
+  </si>
+  <si>
+    <t>(ha) offeso</t>
+  </si>
+  <si>
+    <t>offrire</t>
+  </si>
+  <si>
+    <t>(ha) offerto</t>
+  </si>
+  <si>
     <t>... chi vai ... cinema? ... Renata.</t>
   </si>
   <si>
     <t>Con chi vai al cinema? Con Renata.</t>
   </si>
   <si>
+    <t>perdere</t>
+  </si>
+  <si>
+    <t>(ha) perso/perduto</t>
+  </si>
+  <si>
     <t>Preparo l'insalata. Ti piace ... i pomodori e il mais?</t>
   </si>
   <si>
+    <t>permettere</t>
+  </si>
+  <si>
     <t>Preparo l'insalata. Ti piace con i pomodori e il mais?</t>
   </si>
   <si>
+    <t>(ha) permesso</t>
+  </si>
+  <si>
+    <t>piacere</t>
+  </si>
+  <si>
+    <t>(è) piaciuto</t>
+  </si>
+  <si>
     <t>La polizia cerca qualcosa ... il metal detector.</t>
   </si>
   <si>
     <t>La polizia cerca qualcosa con il metal detector.</t>
   </si>
   <si>
+    <t>piangere</t>
+  </si>
+  <si>
+    <t>(ha) pianto</t>
+  </si>
+  <si>
     <t>Vado ... Roma ... il treno ... 7.00.</t>
   </si>
   <si>
     <t>Vado a Roma con il treno delle 7.00.</t>
   </si>
   <si>
+    <t>prendere</t>
+  </si>
+  <si>
+    <t>(ha) preso</t>
+  </si>
+  <si>
     <t>Il cane non può stare ... questo divano.</t>
   </si>
   <si>
+    <t>promettere</t>
+  </si>
+  <si>
     <t>Il cane non può stare su questo divano.</t>
   </si>
   <si>
+    <t>(ha) promesso</t>
+  </si>
+  <si>
+    <t>ridere</t>
+  </si>
+  <si>
+    <t>(ha) riso</t>
+  </si>
+  <si>
+    <t>(è) rimasto</t>
+  </si>
+  <si>
+    <t>risolvere</t>
+  </si>
+  <si>
+    <t>(ha) risolto</t>
+  </si>
+  <si>
+    <t>rispondere</t>
+  </si>
+  <si>
+    <t>(ha) risposto</t>
+  </si>
+  <si>
     <t>Che bella villa ... mare e che panorama!</t>
   </si>
   <si>
     <t>Che bella villa sul mare e che panorama!</t>
   </si>
   <si>
+    <t>rompere</t>
+  </si>
+  <si>
+    <t>(ha) rotto</t>
+  </si>
+  <si>
+    <t>scegliere</t>
+  </si>
+  <si>
     <t>C'è una macchia ... questa camicia.</t>
   </si>
   <si>
+    <t>(ha) scelto</t>
+  </si>
+  <si>
     <t>C'è una macchia su questa camicia.</t>
   </si>
   <si>
+    <t>scendere</t>
+  </si>
+  <si>
+    <t>(è/ha) sceso</t>
+  </si>
+  <si>
+    <t>scrivere</t>
+  </si>
+  <si>
+    <t>(ha) scritto</t>
+  </si>
+  <si>
     <t>Domani c'è una conferenza ... bioarchitettura, ci vieni?</t>
   </si>
   <si>
     <t>Domani c'è una conferenza sulla bioarchitettura, ci vieni?</t>
   </si>
   <si>
+    <t>soffrire</t>
+  </si>
+  <si>
+    <t>(ha) sofferto</t>
+  </si>
+  <si>
+    <t>spendere</t>
+  </si>
+  <si>
+    <t>(ha) speso</t>
+  </si>
+  <si>
     <t>Ieri ... la TV ho visto un programma ... Leonardo ... Vinci.</t>
   </si>
   <si>
     <t>Ieri a la TV ho visto un programma su Leonardo da Vinci.</t>
   </si>
   <si>
+    <t>spengnere</t>
+  </si>
+  <si>
+    <t>(ha) spento</t>
+  </si>
+  <si>
     <t>Il presidente ha parlato ... tre ore.</t>
   </si>
   <si>
+    <t>spingere</t>
+  </si>
+  <si>
     <t>Il presidente ha parlato per tre ore.</t>
   </si>
   <si>
+    <t>(ha) spinto</t>
+  </si>
+  <si>
+    <t>succedere</t>
+  </si>
+  <si>
     <t>Resto ... Italia ancora ... tre mesi.</t>
   </si>
   <si>
+    <t>(è) successo</t>
+  </si>
+  <si>
     <t>Resto in Italia ancora per tre mesi.</t>
   </si>
   <si>
+    <t>tradurre</t>
+  </si>
+  <si>
+    <t>(ha) tradotto</t>
+  </si>
+  <si>
     <t>Luigi ha lavorato qui ... qualche anno.</t>
   </si>
   <si>
+    <t>(ha) tratto</t>
+  </si>
+  <si>
     <t>Luigi ha lavorato qui per qualche anno.</t>
   </si>
   <si>
+    <t>uccidere</t>
+  </si>
+  <si>
+    <t>(ha) ucciso</t>
+  </si>
+  <si>
     <t>Cara, ti amerò ... sempre.</t>
   </si>
   <si>
     <t>Cara, ti amerò per sempre.</t>
   </si>
   <si>
+    <t>(ha) visto/veduto</t>
+  </si>
+  <si>
+    <t>(è) venuto</t>
+  </si>
+  <si>
     <t>Parto ... Roma.</t>
   </si>
   <si>
     <t>Parto per Roma.</t>
   </si>
   <si>
+    <t>vincere</t>
+  </si>
+  <si>
+    <t>(ha) vinto</t>
+  </si>
+  <si>
+    <t>(è/ha) vissuto</t>
+  </si>
+  <si>
     <t>Ho fatto tutto questo ... te.</t>
   </si>
   <si>
@@ -1071,6 +1601,636 @@
   </si>
   <si>
     <t>Piatti sporchi in cucina, bicchieri ovunque, anche in bagno, il vaso di cristallo pieno di sigarette, pezzi di torta su tutti i tavoli e i divani.</t>
+  </si>
+  <si>
+    <t>Vive ... Germania</t>
+  </si>
+  <si>
+    <t>Vive in Germania</t>
+  </si>
+  <si>
+    <t>Vive ... Francia</t>
+  </si>
+  <si>
+    <t>Vive in Francia</t>
+  </si>
+  <si>
+    <t>Vive ... Italia</t>
+  </si>
+  <si>
+    <t>Vive in Italia</t>
+  </si>
+  <si>
+    <t>Vive ... Belgio</t>
+  </si>
+  <si>
+    <t>Vive in Belgio</t>
+  </si>
+  <si>
+    <t>Vive ... Danimarca</t>
+  </si>
+  <si>
+    <t>Vive in Danimarca</t>
+  </si>
+  <si>
+    <t>Vive ... Inghilterra</t>
+  </si>
+  <si>
+    <t>Vive in Inghilterra</t>
+  </si>
+  <si>
+    <t>Vive ... Australia</t>
+  </si>
+  <si>
+    <t>Vive in Australia</t>
+  </si>
+  <si>
+    <t>Vive ... Africa</t>
+  </si>
+  <si>
+    <t>Vive in Africa</t>
+  </si>
+  <si>
+    <t>Vive ... Russia</t>
+  </si>
+  <si>
+    <t>Vive in Russia</t>
+  </si>
+  <si>
+    <t>Va ... Stati Uniti</t>
+  </si>
+  <si>
+    <t>Va negli Stati Uniti</t>
+  </si>
+  <si>
+    <t>Va ... Italia del Sud</t>
+  </si>
+  <si>
+    <t>Va nell' Italia del Sud</t>
+  </si>
+  <si>
+    <t>Va ... Francia Meridionale</t>
+  </si>
+  <si>
+    <t>Va nella Francia Meridionale</t>
+  </si>
+  <si>
+    <t>Va ... America Latina</t>
+  </si>
+  <si>
+    <t>Va nell'America Latina</t>
+  </si>
+  <si>
+    <t>Va ... Africa Centrale</t>
+  </si>
+  <si>
+    <t>Va nell'Africa Centrale</t>
+  </si>
+  <si>
+    <t>Va ... Paesi Bassi</t>
+  </si>
+  <si>
+    <t>Va nei Paesi Bassi</t>
+  </si>
+  <si>
+    <t>Abita ... Roma</t>
+  </si>
+  <si>
+    <t>Abita a Roma</t>
+  </si>
+  <si>
+    <t>Abita ... Perugia</t>
+  </si>
+  <si>
+    <t>Abita a Perugia</t>
+  </si>
+  <si>
+    <t>Abita ... Milano</t>
+  </si>
+  <si>
+    <t>Abita a Milano</t>
+  </si>
+  <si>
+    <t>Abita ... Parigi</t>
+  </si>
+  <si>
+    <t>Abita a Parigi</t>
+  </si>
+  <si>
+    <t>Abita ... Londra</t>
+  </si>
+  <si>
+    <t>Abita a Londra</t>
+  </si>
+  <si>
+    <t>Abita ... Berlino</t>
+  </si>
+  <si>
+    <t>Abita a Berlino</t>
+  </si>
+  <si>
+    <t>Abita ... Ancona</t>
+  </si>
+  <si>
+    <t>Abita ad Ancona</t>
+  </si>
+  <si>
+    <t>Abita ... Atene</t>
+  </si>
+  <si>
+    <t>Abita ad Atene</t>
+  </si>
+  <si>
+    <t>Abita ... Salonico</t>
+  </si>
+  <si>
+    <t>Abita a Salonico</t>
+  </si>
+  <si>
+    <t>Abita ... Pireo</t>
+  </si>
+  <si>
+    <t>Abita al Pireo</t>
+  </si>
+  <si>
+    <t>Abita ... Patrasso</t>
+  </si>
+  <si>
+    <t>Abita a Patrasso</t>
+  </si>
+  <si>
+    <t>Abita ... Cairo</t>
+  </si>
+  <si>
+    <t>Abita al Cairo</t>
+  </si>
+  <si>
+    <t>Abita ... La Spezia</t>
+  </si>
+  <si>
+    <t>Abita a La Spezia</t>
+  </si>
+  <si>
+    <t>Abita ... L'Aquila</t>
+  </si>
+  <si>
+    <t>Abita a L'Aquila</t>
+  </si>
+  <si>
+    <t>Viene ... Germania</t>
+  </si>
+  <si>
+    <t>Viene dalla Germania</t>
+  </si>
+  <si>
+    <t>Viene ... Italia</t>
+  </si>
+  <si>
+    <t>Viene dall'Italia</t>
+  </si>
+  <si>
+    <t>Viene ... Belgio</t>
+  </si>
+  <si>
+    <t>Viene dal Belgio</t>
+  </si>
+  <si>
+    <t>Viene ... Danimarca</t>
+  </si>
+  <si>
+    <t>Viene dalla Danimarca</t>
+  </si>
+  <si>
+    <t>Viene ... Messico</t>
+  </si>
+  <si>
+    <t>Viene dal Messico</t>
+  </si>
+  <si>
+    <t>Viene ... America</t>
+  </si>
+  <si>
+    <t>Viene dall'America</t>
+  </si>
+  <si>
+    <t>Viene ... Africa</t>
+  </si>
+  <si>
+    <t>Viene dall'Africa</t>
+  </si>
+  <si>
+    <t>Viene ... Stati Uniti</t>
+  </si>
+  <si>
+    <t>Viene dagli Stati Uniti</t>
+  </si>
+  <si>
+    <t>Viene ... Brasile</t>
+  </si>
+  <si>
+    <t>Viene dalla Brasile</t>
+  </si>
+  <si>
+    <t>Viene ... Russia</t>
+  </si>
+  <si>
+    <t>Viene dalla Russia</t>
+  </si>
+  <si>
+    <t>Viene ... Paesi Bassi</t>
+  </si>
+  <si>
+    <t>Viene dai Paesi Bassi</t>
+  </si>
+  <si>
+    <t>Viene ... Bologna</t>
+  </si>
+  <si>
+    <t>Viene da Bologna</t>
+  </si>
+  <si>
+    <t>Viene ... Napoli</t>
+  </si>
+  <si>
+    <t>Viene da Napoli</t>
+  </si>
+  <si>
+    <t>Viene ... Torino</t>
+  </si>
+  <si>
+    <t>Viene da Torino</t>
+  </si>
+  <si>
+    <t>Viene ... Palermo</t>
+  </si>
+  <si>
+    <t>Viene da Palermo</t>
+  </si>
+  <si>
+    <t>Viene ... Atene</t>
+  </si>
+  <si>
+    <t>Viene d'Atene</t>
+  </si>
+  <si>
+    <t>Viene ... Pireo</t>
+  </si>
+  <si>
+    <t>Viene dal Pireo</t>
+  </si>
+  <si>
+    <t>Viene ... Genova</t>
+  </si>
+  <si>
+    <t>Viene da Genova</t>
+  </si>
+  <si>
+    <t>Viene ... Cairo</t>
+  </si>
+  <si>
+    <t>Viene dal Cairo</t>
+  </si>
+  <si>
+    <t>Viene ... La Spezia</t>
+  </si>
+  <si>
+    <t>Viene da La Spezia</t>
+  </si>
+  <si>
+    <t>Viene ... L'Aquila</t>
+  </si>
+  <si>
+    <t>Viene da L'Aquila</t>
+  </si>
+  <si>
+    <t>Parte ... Germania</t>
+  </si>
+  <si>
+    <t>Parte per la Germania</t>
+  </si>
+  <si>
+    <t>Parte ... Italia</t>
+  </si>
+  <si>
+    <t>Parte per l'Italia</t>
+  </si>
+  <si>
+    <t>Parte ... Belgio</t>
+  </si>
+  <si>
+    <t>Parte per il Belgio</t>
+  </si>
+  <si>
+    <t>Parte ... Danimarca</t>
+  </si>
+  <si>
+    <t>Parte per la Danimarca</t>
+  </si>
+  <si>
+    <t>Parte ... Messico</t>
+  </si>
+  <si>
+    <t>Parte per il Messico</t>
+  </si>
+  <si>
+    <t>Parte ... America</t>
+  </si>
+  <si>
+    <t>Parte per l'America</t>
+  </si>
+  <si>
+    <t>Parte ... Africa</t>
+  </si>
+  <si>
+    <t>Parte per l'Africa</t>
+  </si>
+  <si>
+    <t>Parte ... Portogallo</t>
+  </si>
+  <si>
+    <t>Parte per il Portogallo</t>
+  </si>
+  <si>
+    <t>Parte ... Olanda</t>
+  </si>
+  <si>
+    <t>Parte per l'Olanda</t>
+  </si>
+  <si>
+    <t>Parte ... Francia</t>
+  </si>
+  <si>
+    <t>Parte per la Francia</t>
+  </si>
+  <si>
+    <t>Parte ... Russia</t>
+  </si>
+  <si>
+    <t>Parte per la Russia</t>
+  </si>
+  <si>
+    <t>Parte ... Bologna</t>
+  </si>
+  <si>
+    <t>Parte per Bologna</t>
+  </si>
+  <si>
+    <t>Parte ... Pireo</t>
+  </si>
+  <si>
+    <t>Parte per il Pireo</t>
+  </si>
+  <si>
+    <t>Preferisci andare ... treno o ... macchina?</t>
+  </si>
+  <si>
+    <t>Preferisci andare in treno o in macchina?</t>
+  </si>
+  <si>
+    <t>Viaggia sempre ... aereo.</t>
+  </si>
+  <si>
+    <t>Viaggia sempre in aereo.</t>
+  </si>
+  <si>
+    <t>Parti ... treno ... sei o ... aereo ... otto?</t>
+  </si>
+  <si>
+    <t>Parti con il treno delle sette o col l'aereo delle otto?</t>
+  </si>
+  <si>
+    <t>Veniamo ... macchina ... Gustavo.</t>
+  </si>
+  <si>
+    <t>Veniamo con la macchina di Gustavo.</t>
+  </si>
+  <si>
+    <t>Quando fa bel tempo, vado ... bicicletta.</t>
+  </si>
+  <si>
+    <t>Quando fa bel tempo, vado in bicicletta.</t>
+  </si>
+  <si>
+    <t>... estate andiamo ... mare.</t>
+  </si>
+  <si>
+    <t>In/D' estate andiamo al mare.</t>
+  </si>
+  <si>
+    <t>Arrivano ... luglio o ... agosto.</t>
+  </si>
+  <si>
+    <t>Arrivano in luglio o in agosto.</t>
+  </si>
+  <si>
+    <t>Le scuole aprono ... mese ... settembre.</t>
+  </si>
+  <si>
+    <t>Le scuole aprono nel mese di settembre.</t>
+  </si>
+  <si>
+    <t>Le scuole chiudono ... giugno.</t>
+  </si>
+  <si>
+    <t>Le scuole chiudono a giugno.</t>
+  </si>
+  <si>
+    <t>... inverno passiamo una settimana ... montagna.</t>
+  </si>
+  <si>
+    <t>In inverno passiamo una settimana in montagna.</t>
+  </si>
+  <si>
+    <t>Le mie scarpe sono ... pelle.</t>
+  </si>
+  <si>
+    <t>Le mie scarpe sono di pelle.</t>
+  </si>
+  <si>
+    <t>Preferisce una tazza ... tè.</t>
+  </si>
+  <si>
+    <t>Preferisce una tazza di tè.</t>
+  </si>
+  <si>
+    <t>Vado ... comprare ... tazze ... caffè.</t>
+  </si>
+  <si>
+    <t>Vado a comprare delle tazze di caffè.</t>
+  </si>
+  <si>
+    <t>... nostro matrimonio ci hanno regalato un servizio ... caffè.</t>
+  </si>
+  <si>
+    <t>Al nostro matrimonio ci hanno regalato un servizio da caffè.</t>
+  </si>
+  <si>
+    <t>Ogni sera, dopo cena, bevo un bicchiere ... cognac.</t>
+  </si>
+  <si>
+    <t>Ogni sera, dopo cena, bevo un bicchiere di cognac.</t>
+  </si>
+  <si>
+    <t>Questi piatti ... frutta sono ... porcellana.</t>
+  </si>
+  <si>
+    <t>Questi piatti da frutta sono di porcellana.</t>
+  </si>
+  <si>
+    <t>Vorrei un bicchiere ... birra, per favore!</t>
+  </si>
+  <si>
+    <t>Vorrei un bicchiere di birra, per favore!</t>
+  </si>
+  <si>
+    <t>... dov'è, signorina? Sono ... Bologna.</t>
+  </si>
+  <si>
+    <t>Di dov'è, signorina? Sono di Bologna.</t>
+  </si>
+  <si>
+    <t>Maria è piu simpatica ... Claudia.</t>
+  </si>
+  <si>
+    <t>Maria è piu simpatica di Claudia.</t>
+  </si>
+  <si>
+    <t>Lui è piu ricco, ma meno felice ... me.</t>
+  </si>
+  <si>
+    <t>Lui è piu ricco, ma meno felice di me.</t>
+  </si>
+  <si>
+    <t>Stasera andiamo tutti ... Carlo.</t>
+  </si>
+  <si>
+    <t>Stasera andiamo tutti da Carlo.</t>
+  </si>
+  <si>
+    <t>Suo figlio lavora ... Policlinico.</t>
+  </si>
+  <si>
+    <t>Suo figlio lavora al Policlinico.</t>
+  </si>
+  <si>
+    <t>Compro ... pane e ... arance.</t>
+  </si>
+  <si>
+    <t>Compro del pane e delle arance.</t>
+  </si>
+  <si>
+    <t>Che cosa c'è ... valigia?</t>
+  </si>
+  <si>
+    <t>Che cosa c'è nella valigia?</t>
+  </si>
+  <si>
+    <t>Preferisco vivere ... città.</t>
+  </si>
+  <si>
+    <t>Preferisco vivere in città.</t>
+  </si>
+  <si>
+    <t>Tornano ... poco.</t>
+  </si>
+  <si>
+    <t>Tornano tra poco.</t>
+  </si>
+  <si>
+    <t>I miei amici vanno ... Spagna.</t>
+  </si>
+  <si>
+    <t>I miei amici vanno in Spagna.</t>
+  </si>
+  <si>
+    <t>Elena finisce ... studiare ... due anni.</t>
+  </si>
+  <si>
+    <t>Elena finisce di studiare fra due anni.</t>
+  </si>
+  <si>
+    <t>L'albergo è lontano ... centro.</t>
+  </si>
+  <si>
+    <t>L'albergo è lontano dal centro.</t>
+  </si>
+  <si>
+    <t>... tavolo c'è un portacenere.</t>
+  </si>
+  <si>
+    <t>Sul tavolo c'è un portacenere.</t>
+  </si>
+  <si>
+    <t>L'ho cercato ... mare e ... terra.</t>
+  </si>
+  <si>
+    <t>L'ho cercato per mare e per terra.</t>
+  </si>
+  <si>
+    <t>Ho l'abitudine ... studiare ... notte.</t>
+  </si>
+  <si>
+    <t>Ho l'abitudine di studiare di notte.</t>
+  </si>
+  <si>
+    <t>La loro casa è vicino ... piazza Savonarola.</t>
+  </si>
+  <si>
+    <t>La loro casa è vicino a piazza Savonarola.</t>
+  </si>
+  <si>
+    <t>... fronte ... Universita c'è una piazza.</t>
+  </si>
+  <si>
+    <t>Di fronte all'Universita c'è una piazza.</t>
+  </si>
+  <si>
+    <t>... questo rumore non riesco ... dormire.</t>
+  </si>
+  <si>
+    <t>Con questo rumore non riesco a dormire.</t>
+  </si>
+  <si>
+    <t>Cerco ... essere gentile ... tutti.</t>
+  </si>
+  <si>
+    <t>Cerco di essere gentile con tutti.</t>
+  </si>
+  <si>
+    <t>... loro due tutto è finito.</t>
+  </si>
+  <si>
+    <t>Tra loro due tutto è finito.</t>
+  </si>
+  <si>
+    <t>Mio padre pensa ... comprare un'Alfa Romeo.</t>
+  </si>
+  <si>
+    <t>Mio padre pensa di comprare un'Alfa Romeo.</t>
+  </si>
+  <si>
+    <t>Che cosa vi offro ... bere?</t>
+  </si>
+  <si>
+    <t>Che cosa vi offro da bere?</t>
+  </si>
+  <si>
+    <t>... queste cose non si scherza.</t>
+  </si>
+  <si>
+    <t>Con queste coe non si scherza.</t>
+  </si>
+  <si>
+    <t>Deve lavorare ... mantenere la famiglia.</t>
+  </si>
+  <si>
+    <t>Deve lavorare per mantenere la famiglia.</t>
+  </si>
+  <si>
+    <t>Suo fratello è morto e lui fa ... padre ai nipoti.</t>
+  </si>
+  <si>
+    <t>Suo fratello è morto e lui fa da padre ai nipoti.</t>
   </si>
 </sst>
 </file>
@@ -1112,13 +2272,13 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
@@ -1154,6 +2314,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -1164,8 +2332,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="73.29"/>
-    <col customWidth="1" min="2" max="2" width="130.86"/>
+    <col customWidth="1" min="1" max="1" width="24.0"/>
+    <col customWidth="1" min="2" max="2" width="38.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1173,167 +2341,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1351,144 +2407,240 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="73.29"/>
-    <col customWidth="1" min="2" max="2" width="130.86"/>
+    <col customWidth="1" min="1" max="1" width="37.43"/>
+    <col customWidth="1" min="2" max="2" width="55.71"/>
+    <col customWidth="1" min="3" max="3" width="64.86"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
+      <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
+      <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
+      <c r="A16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
+      <c r="A17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1506,496 +2658,196 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="56.71"/>
-    <col customWidth="1" min="2" max="2" width="66.86"/>
+    <col customWidth="1" min="1" max="1" width="42.0"/>
+    <col customWidth="1" min="2" max="2" width="37.71"/>
+    <col customWidth="1" min="3" max="3" width="54.29"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>57</v>
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="B14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>77</v>
+      <c r="A15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>79</v>
+      <c r="A16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>193</v>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2013,18 +2865,712 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="63.43"/>
-    <col customWidth="1" min="2" max="2" width="54.57"/>
+    <col customWidth="1" min="1" max="1" width="56.71"/>
+    <col customWidth="1" min="2" max="2" width="39.86"/>
+    <col customWidth="1" min="3" max="3" width="51.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="63.43"/>
+    <col customWidth="1" min="2" max="2" width="54.57"/>
+    <col customWidth="1" min="3" max="3" width="51.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -2051,12 +3597,14 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -2083,12 +3631,14 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -2115,12 +3665,14 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -2147,12 +3699,14 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2179,12 +3733,14 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2211,12 +3767,14 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>155</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -2243,12 +3801,14 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -2275,12 +3835,14 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -2307,12 +3869,14 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>175</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2339,12 +3903,14 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>182</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2371,12 +3937,14 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>195</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2403,12 +3971,14 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>203</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2435,12 +4005,14 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>211</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2467,12 +4039,14 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2499,12 +4073,14 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2531,12 +4107,14 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>232</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2563,12 +4141,14 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2595,12 +4175,14 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>246</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2627,12 +4209,14 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>252</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2659,12 +4243,14 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2691,12 +4277,14 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>264</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2723,12 +4311,14 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>271</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2755,12 +4345,14 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>277</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2787,12 +4379,14 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>284</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2819,12 +4413,14 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>292</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2851,12 +4447,14 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" s="4"/>
+        <v>298</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -2883,12 +4481,14 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>300</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -2915,12 +4515,14 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C29" s="4"/>
+        <v>302</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -2947,12 +4549,14 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>304</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2979,12 +4583,14 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>306</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -3011,12 +4617,14 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>308</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -3043,12 +4651,14 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C33" s="4"/>
+        <v>310</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -3075,12 +4685,14 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>317</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -3107,12 +4719,14 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C35" s="4"/>
+        <v>323</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -3139,12 +4753,14 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C36" s="4"/>
+        <v>327</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -3171,12 +4787,14 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>264</v>
+        <v>331</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C37" s="4"/>
+        <v>332</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -3203,12 +4821,14 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>266</v>
+        <v>337</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C38" s="4"/>
+        <v>339</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -3235,12 +4855,14 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>346</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -3267,12 +4889,14 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>270</v>
+        <v>351</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C40" s="4"/>
+        <v>352</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -3299,12 +4923,14 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>272</v>
+        <v>357</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C41" s="4"/>
+        <v>358</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -3331,12 +4957,14 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>274</v>
+        <v>362</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C42" s="4"/>
+        <v>365</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -3363,12 +4991,14 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>276</v>
+        <v>369</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C43" s="4"/>
+        <v>371</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -3395,12 +5025,14 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>278</v>
+        <v>376</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C44" s="4"/>
+        <v>377</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -3427,12 +5059,14 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>280</v>
+        <v>382</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C45" s="4"/>
+        <v>383</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -3459,12 +5093,14 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>282</v>
+        <v>388</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C46" s="4"/>
+        <v>389</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -3491,12 +5127,14 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C47" s="4"/>
+        <v>394</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -3523,12 +5161,14 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>286</v>
+        <v>398</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C48" s="4"/>
+        <v>400</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -3555,12 +5195,14 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>288</v>
+        <v>404</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C49" s="4"/>
+        <v>406</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -3587,12 +5229,14 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>290</v>
+        <v>409</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C50" s="4"/>
+        <v>412</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -3619,12 +5263,14 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C51" s="4"/>
+        <v>418</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -3651,12 +5297,14 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C52" s="4"/>
+        <v>424</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -3683,12 +5331,14 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>296</v>
+        <v>427</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C53" s="4"/>
+        <v>429</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -3715,12 +5365,14 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>298</v>
+        <v>433</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C54" s="4"/>
+        <v>434</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -3747,12 +5399,14 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>300</v>
+        <v>437</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C55" s="4"/>
+        <v>438</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -3779,12 +5433,14 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>302</v>
+        <v>441</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C56" s="4"/>
+        <v>443</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -3811,12 +5467,14 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>304</v>
+        <v>452</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C57" s="4"/>
+        <v>453</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -3843,12 +5501,14 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>306</v>
+        <v>457</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C58" s="4"/>
+        <v>459</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -3875,12 +5535,14 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>308</v>
+        <v>464</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C59" s="4"/>
+        <v>465</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -3907,12 +5569,14 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>310</v>
+        <v>470</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C60" s="4"/>
+        <v>471</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -3939,12 +5603,14 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>312</v>
+        <v>474</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C61" s="4"/>
+        <v>476</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -3971,12 +5637,14 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>314</v>
+        <v>479</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C62" s="4"/>
+        <v>481</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -4003,12 +5671,14 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>316</v>
+        <v>484</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C63" s="4"/>
+        <v>486</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -4035,12 +5705,14 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>318</v>
+        <v>489</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C64" s="4"/>
+        <v>490</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -4067,12 +5739,14 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>320</v>
+        <v>493</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C65" s="4"/>
+        <v>494</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -4099,12 +5773,14 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>322</v>
+        <v>498</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C66" s="4"/>
+        <v>499</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -4131,12 +5807,14 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>324</v>
+        <v>500</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C67" s="4"/>
+        <v>501</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -4163,12 +5841,14 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>326</v>
+        <v>502</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C68" s="4"/>
+        <v>503</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -4195,12 +5875,14 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>328</v>
+        <v>504</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C69" s="4"/>
+        <v>505</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -4227,12 +5909,14 @@
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>330</v>
+        <v>506</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C70" s="4"/>
+        <v>507</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -4259,12 +5943,14 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>332</v>
+        <v>508</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C71" s="4"/>
+        <v>509</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -4291,12 +5977,14 @@
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>334</v>
+        <v>510</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C72" s="4"/>
+        <v>511</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -4323,12 +6011,14 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>336</v>
+        <v>512</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C73" s="4"/>
+        <v>513</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -4355,12 +6045,14 @@
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>338</v>
+        <v>514</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C74" s="4"/>
+        <v>515</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -4387,12 +6079,14 @@
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>340</v>
+        <v>516</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C75" s="4"/>
+        <v>517</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -4419,12 +6113,14 @@
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>342</v>
+        <v>518</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C76" s="4"/>
+        <v>519</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -4451,12 +6147,14 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>344</v>
+        <v>520</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C77" s="4"/>
+        <v>521</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -4483,12 +6181,14 @@
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>346</v>
+        <v>522</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C78" s="4"/>
+        <v>523</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -4515,12 +6215,14 @@
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>348</v>
+        <v>524</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C79" s="4"/>
+        <v>525</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -4547,12 +6249,14 @@
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>350</v>
+        <v>526</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="C80" s="4"/>
+        <v>527</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -4578,6 +6282,15 @@
       <c r="Z80" s="4"/>
     </row>
     <row r="81">
+      <c r="A81" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -4603,6 +6316,15 @@
       <c r="Z81" s="4"/>
     </row>
     <row r="82">
+      <c r="A82" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -4628,6 +6350,15 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83">
+      <c r="A83" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -4653,6 +6384,15 @@
       <c r="Z83" s="4"/>
     </row>
     <row r="84">
+      <c r="A84" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -4678,6 +6418,15 @@
       <c r="Z84" s="4"/>
     </row>
     <row r="85">
+      <c r="A85" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -4703,6 +6452,15 @@
       <c r="Z85" s="4"/>
     </row>
     <row r="86">
+      <c r="A86" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -4728,6 +6486,15 @@
       <c r="Z86" s="4"/>
     </row>
     <row r="87">
+      <c r="A87" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -4753,6 +6520,15 @@
       <c r="Z87" s="4"/>
     </row>
     <row r="88">
+      <c r="A88" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -4778,6 +6554,15 @@
       <c r="Z88" s="4"/>
     </row>
     <row r="89">
+      <c r="A89" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -4803,6 +6588,15 @@
       <c r="Z89" s="4"/>
     </row>
     <row r="90">
+      <c r="A90" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -4828,6 +6622,15 @@
       <c r="Z90" s="4"/>
     </row>
     <row r="91">
+      <c r="A91" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -4853,6 +6656,15 @@
       <c r="Z91" s="4"/>
     </row>
     <row r="92">
+      <c r="A92" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -4878,6 +6690,15 @@
       <c r="Z92" s="4"/>
     </row>
     <row r="93">
+      <c r="A93" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -4903,6 +6724,15 @@
       <c r="Z93" s="4"/>
     </row>
     <row r="94">
+      <c r="A94" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -4928,6 +6758,15 @@
       <c r="Z94" s="4"/>
     </row>
     <row r="95">
+      <c r="A95" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -4953,6 +6792,15 @@
       <c r="Z95" s="4"/>
     </row>
     <row r="96">
+      <c r="A96" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -4978,6 +6826,15 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97">
+      <c r="A97" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -5003,6 +6860,15 @@
       <c r="Z97" s="4"/>
     </row>
     <row r="98">
+      <c r="A98" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -5028,6 +6894,15 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="99">
+      <c r="A99" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -5053,6 +6928,15 @@
       <c r="Z99" s="4"/>
     </row>
     <row r="100">
+      <c r="A100" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -5078,6 +6962,15 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101">
+      <c r="A101" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -5103,6 +6996,15 @@
       <c r="Z101" s="4"/>
     </row>
     <row r="102">
+      <c r="A102" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -5128,6 +7030,15 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103">
+      <c r="A103" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -5153,6 +7064,15 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104">
+      <c r="A104" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -5178,6 +7098,15 @@
       <c r="Z104" s="4"/>
     </row>
     <row r="105">
+      <c r="A105" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -5203,6 +7132,15 @@
       <c r="Z105" s="4"/>
     </row>
     <row r="106">
+      <c r="A106" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -5228,6 +7166,15 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107">
+      <c r="A107" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -5253,6 +7200,15 @@
       <c r="Z107" s="4"/>
     </row>
     <row r="108">
+      <c r="A108" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -5278,6 +7234,15 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109">
+      <c r="A109" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -5303,6 +7268,15 @@
       <c r="Z109" s="4"/>
     </row>
     <row r="110">
+      <c r="A110" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -5328,6 +7302,15 @@
       <c r="Z110" s="4"/>
     </row>
     <row r="111">
+      <c r="A111" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -5353,6 +7336,15 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112">
+      <c r="A112" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -5378,6 +7370,15 @@
       <c r="Z112" s="4"/>
     </row>
     <row r="113">
+      <c r="A113" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -5403,6 +7404,15 @@
       <c r="Z113" s="4"/>
     </row>
     <row r="114">
+      <c r="A114" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -5428,6 +7438,15 @@
       <c r="Z114" s="4"/>
     </row>
     <row r="115">
+      <c r="A115" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -5453,6 +7472,15 @@
       <c r="Z115" s="4"/>
     </row>
     <row r="116">
+      <c r="A116" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -5478,6 +7506,15 @@
       <c r="Z116" s="4"/>
     </row>
     <row r="117">
+      <c r="A117" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -5503,6 +7540,15 @@
       <c r="Z117" s="4"/>
     </row>
     <row r="118">
+      <c r="A118" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -5528,6 +7574,15 @@
       <c r="Z118" s="4"/>
     </row>
     <row r="119">
+      <c r="A119" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -5553,6 +7608,15 @@
       <c r="Z119" s="4"/>
     </row>
     <row r="120">
+      <c r="A120" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -5578,6 +7642,15 @@
       <c r="Z120" s="4"/>
     </row>
     <row r="121">
+      <c r="A121" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -5603,6 +7676,15 @@
       <c r="Z121" s="4"/>
     </row>
     <row r="122">
+      <c r="A122" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -5628,6 +7710,15 @@
       <c r="Z122" s="4"/>
     </row>
     <row r="123">
+      <c r="A123" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -5653,6 +7744,15 @@
       <c r="Z123" s="4"/>
     </row>
     <row r="124">
+      <c r="A124" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -5678,6 +7778,15 @@
       <c r="Z124" s="4"/>
     </row>
     <row r="125">
+      <c r="A125" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -5703,6 +7812,15 @@
       <c r="Z125" s="4"/>
     </row>
     <row r="126">
+      <c r="A126" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -5728,6 +7846,15 @@
       <c r="Z126" s="4"/>
     </row>
     <row r="127">
+      <c r="A127" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -5753,6 +7880,15 @@
       <c r="Z127" s="4"/>
     </row>
     <row r="128">
+      <c r="A128" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -5778,6 +7914,15 @@
       <c r="Z128" s="4"/>
     </row>
     <row r="129">
+      <c r="A129" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -5803,6 +7948,15 @@
       <c r="Z129" s="4"/>
     </row>
     <row r="130">
+      <c r="A130" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -5828,6 +7982,15 @@
       <c r="Z130" s="4"/>
     </row>
     <row r="131">
+      <c r="A131" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -5853,6 +8016,15 @@
       <c r="Z131" s="4"/>
     </row>
     <row r="132">
+      <c r="A132" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -5878,6 +8050,15 @@
       <c r="Z132" s="4"/>
     </row>
     <row r="133">
+      <c r="A133" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -5903,6 +8084,15 @@
       <c r="Z133" s="4"/>
     </row>
     <row r="134">
+      <c r="A134" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -5928,6 +8118,15 @@
       <c r="Z134" s="4"/>
     </row>
     <row r="135">
+      <c r="A135" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -5953,6 +8152,15 @@
       <c r="Z135" s="4"/>
     </row>
     <row r="136">
+      <c r="A136" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -5978,6 +8186,15 @@
       <c r="Z136" s="4"/>
     </row>
     <row r="137">
+      <c r="A137" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -6003,6 +8220,15 @@
       <c r="Z137" s="4"/>
     </row>
     <row r="138">
+      <c r="A138" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -6028,6 +8254,15 @@
       <c r="Z138" s="4"/>
     </row>
     <row r="139">
+      <c r="A139" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -6053,6 +8288,15 @@
       <c r="Z139" s="4"/>
     </row>
     <row r="140">
+      <c r="A140" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -6078,6 +8322,15 @@
       <c r="Z140" s="4"/>
     </row>
     <row r="141">
+      <c r="A141" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -6103,6 +8356,15 @@
       <c r="Z141" s="4"/>
     </row>
     <row r="142">
+      <c r="A142" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -6128,6 +8390,15 @@
       <c r="Z142" s="4"/>
     </row>
     <row r="143">
+      <c r="A143" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -6153,6 +8424,15 @@
       <c r="Z143" s="4"/>
     </row>
     <row r="144">
+      <c r="A144" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -6178,6 +8458,15 @@
       <c r="Z144" s="4"/>
     </row>
     <row r="145">
+      <c r="A145" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -6203,6 +8492,15 @@
       <c r="Z145" s="4"/>
     </row>
     <row r="146">
+      <c r="A146" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -6228,6 +8526,15 @@
       <c r="Z146" s="4"/>
     </row>
     <row r="147">
+      <c r="A147" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -6253,6 +8560,15 @@
       <c r="Z147" s="4"/>
     </row>
     <row r="148">
+      <c r="A148" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -6278,6 +8594,15 @@
       <c r="Z148" s="4"/>
     </row>
     <row r="149">
+      <c r="A149" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -6303,6 +8628,15 @@
       <c r="Z149" s="4"/>
     </row>
     <row r="150">
+      <c r="A150" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -6328,6 +8662,15 @@
       <c r="Z150" s="4"/>
     </row>
     <row r="151">
+      <c r="A151" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -6353,6 +8696,15 @@
       <c r="Z151" s="4"/>
     </row>
     <row r="152">
+      <c r="A152" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -6378,6 +8730,15 @@
       <c r="Z152" s="4"/>
     </row>
     <row r="153">
+      <c r="A153" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -6403,6 +8764,15 @@
       <c r="Z153" s="4"/>
     </row>
     <row r="154">
+      <c r="A154" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -6428,6 +8798,15 @@
       <c r="Z154" s="4"/>
     </row>
     <row r="155">
+      <c r="A155" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -6453,6 +8832,15 @@
       <c r="Z155" s="4"/>
     </row>
     <row r="156">
+      <c r="A156" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -6478,6 +8866,15 @@
       <c r="Z156" s="4"/>
     </row>
     <row r="157">
+      <c r="A157" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -6503,9 +8900,15 @@
       <c r="Z157" s="4"/>
     </row>
     <row r="158">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
+      <c r="A158" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -6531,9 +8934,15 @@
       <c r="Z158" s="4"/>
     </row>
     <row r="159">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
+      <c r="A159" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -6559,9 +8968,15 @@
       <c r="Z159" s="4"/>
     </row>
     <row r="160">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
+      <c r="A160" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -6587,9 +9002,15 @@
       <c r="Z160" s="4"/>
     </row>
     <row r="161">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
+      <c r="A161" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -6615,9 +9036,15 @@
       <c r="Z161" s="4"/>
     </row>
     <row r="162">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
+      <c r="A162" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -6643,9 +9070,15 @@
       <c r="Z162" s="4"/>
     </row>
     <row r="163">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
+      <c r="A163" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
@@ -6671,9 +9104,15 @@
       <c r="Z163" s="4"/>
     </row>
     <row r="164">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
+      <c r="A164" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -6699,9 +9138,15 @@
       <c r="Z164" s="4"/>
     </row>
     <row r="165">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
+      <c r="A165" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
@@ -6727,9 +9172,15 @@
       <c r="Z165" s="4"/>
     </row>
     <row r="166">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
+      <c r="A166" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
@@ -6755,9 +9206,15 @@
       <c r="Z166" s="4"/>
     </row>
     <row r="167">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
+      <c r="A167" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -6783,9 +9240,15 @@
       <c r="Z167" s="4"/>
     </row>
     <row r="168">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
+      <c r="A168" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -6811,9 +9274,15 @@
       <c r="Z168" s="4"/>
     </row>
     <row r="169">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
+      <c r="A169" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
@@ -6839,9 +9308,15 @@
       <c r="Z169" s="4"/>
     </row>
     <row r="170">
-      <c r="A170" s="4"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
+      <c r="A170" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
@@ -6867,9 +9342,15 @@
       <c r="Z170" s="4"/>
     </row>
     <row r="171">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
+      <c r="A171" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
@@ -6895,9 +9376,15 @@
       <c r="Z171" s="4"/>
     </row>
     <row r="172">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
+      <c r="A172" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
@@ -6923,9 +9410,15 @@
       <c r="Z172" s="4"/>
     </row>
     <row r="173">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
+      <c r="A173" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
@@ -6951,9 +9444,15 @@
       <c r="Z173" s="4"/>
     </row>
     <row r="174">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
+      <c r="A174" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
@@ -6979,9 +9478,15 @@
       <c r="Z174" s="4"/>
     </row>
     <row r="175">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
+      <c r="A175" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
@@ -7007,9 +9512,15 @@
       <c r="Z175" s="4"/>
     </row>
     <row r="176">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
+      <c r="A176" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
@@ -7035,9 +9546,15 @@
       <c r="Z176" s="4"/>
     </row>
     <row r="177">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
+      <c r="A177" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
@@ -7063,9 +9580,15 @@
       <c r="Z177" s="4"/>
     </row>
     <row r="178">
-      <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
+      <c r="A178" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
@@ -7091,9 +9614,15 @@
       <c r="Z178" s="4"/>
     </row>
     <row r="179">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
+      <c r="A179" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
@@ -7119,9 +9648,15 @@
       <c r="Z179" s="4"/>
     </row>
     <row r="180">
-      <c r="A180" s="4"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
+      <c r="A180" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
@@ -7147,9 +9682,15 @@
       <c r="Z180" s="4"/>
     </row>
     <row r="181">
-      <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
+      <c r="A181" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
@@ -7175,9 +9716,15 @@
       <c r="Z181" s="4"/>
     </row>
     <row r="182">
-      <c r="A182" s="4"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
+      <c r="A182" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
@@ -7203,9 +9750,15 @@
       <c r="Z182" s="4"/>
     </row>
     <row r="183">
-      <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
+      <c r="A183" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
@@ -7231,9 +9784,15 @@
       <c r="Z183" s="4"/>
     </row>
     <row r="184">
-      <c r="A184" s="4"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
+      <c r="A184" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
@@ -7259,9 +9818,15 @@
       <c r="Z184" s="4"/>
     </row>
     <row r="185">
-      <c r="A185" s="4"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
+      <c r="A185" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
@@ -30111,13 +32676,1064 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="86.57"/>
+    <col customWidth="1" min="3" max="3" width="92.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="33.86"/>
+    <col customWidth="1" min="2" max="2" width="45.71"/>
+    <col customWidth="1" min="3" max="3" width="44.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>